--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8096D1-0797-47D3-A8D7-BD0C279BC60A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B497F8B-8653-469B-A2B7-A6D11B5497C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Channel" sheetId="23" r:id="rId4"/>
     <sheet name="Color" sheetId="24" r:id="rId5"/>
     <sheet name="Binary_Data" sheetId="25" r:id="rId6"/>
-    <sheet name="Unit" sheetId="26" r:id="rId7"/>
-    <sheet name="size" sheetId="27" r:id="rId8"/>
+    <sheet name="size" sheetId="27" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
   <si>
     <t/>
   </si>
@@ -420,18 +419,6 @@
   </si>
   <si>
     <t>acquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -442,59 +429,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -529,14 +463,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -576,6 +502,17 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -583,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,13 +549,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -668,11 +598,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,14 +926,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1059,7 +989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1067,31 +997,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -1099,7 +1029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1107,7 +1037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -1115,7 +1045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1123,12 +1053,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1144,18 +1074,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1117,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1225,12 +1155,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -1254,21 +1184,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1260,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1389,10 +1319,10 @@
         <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1416,12 +1346,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -1430,10 +1360,10 @@
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1457,7 +1387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1468,7 +1398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1492,17 +1422,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +1458,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1560,12 +1490,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>105</v>
@@ -1574,12 +1504,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -1588,12 +1518,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>106</v>
@@ -1614,15 +1544,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1633,14 +1563,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1660,7 +1590,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
@@ -1668,7 +1598,7 @@
         <v>-16776961</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
@@ -1676,7 +1606,7 @@
         <v>16711935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1696,17 +1626,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1662,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1747,7 +1677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1761,10 +1691,10 @@
         <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
@@ -1778,7 +1708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
@@ -1792,7 +1722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1813,154 +1743,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6384D1-7485-40CC-BAA0-85A3C8E22DCF}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B8D0F4-EAE7-4257-9C07-0811CAB9D7A5}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1969,32 +1796,32 @@
         <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>137</v>
+      <c r="D5" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B497F8B-8653-469B-A2B7-A6D11B5497C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48E62A-9F05-4803-9BF1-DA9E32C4421A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t/>
   </si>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -248,22 +244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -276,14 +256,6 @@
   </si>
   <si>
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -513,6 +485,62 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -922,7 +950,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -999,66 +1027,90 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1160,16 +1212,16 @@
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1187,20 +1239,20 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>32</v>
@@ -1209,7 +1261,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>40</v>
@@ -1269,37 +1321,37 @@
         <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1307,22 +1359,22 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1340,30 +1392,30 @@
         <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1381,32 +1433,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1477,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -1446,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1470,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1487,49 +1539,49 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1609,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1576,7 +1628,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1592,7 +1644,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -1600,7 +1652,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -1608,7 +1660,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>
@@ -1629,7 +1681,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1691,18 +1743,18 @@
         <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1710,13 +1762,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -1724,13 +1776,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -1764,13 +1816,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1778,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1793,10 +1845,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1804,24 +1856,24 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48E62A-9F05-4803-9BF1-DA9E32C4421A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270CC76F-4DEF-4838-BD11-5AB72A5EBDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -99,15 +96,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -120,15 +108,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -165,18 +144,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -189,12 +159,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -275,66 +239,6 @@
     <t>dimensionOrder:xyczt</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/multi-channel/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -342,13 +246,6 @@
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitionMode:laserScanningConfocalMicroscopy</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -379,10 +276,6 @@
   </si>
   <si>
     <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -541,6 +434,126 @@
   </si>
   <si>
     <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -963,154 +976,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1139,89 +1152,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1256,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -1252,51 +1265,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1314,108 +1327,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1433,32 +1446,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1479,31 +1492,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1512,76 +1525,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1606,45 +1619,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -1652,7 +1665,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -1660,7 +1673,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>
@@ -1680,34 +1693,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1716,45 +1729,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1762,13 +1775,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -1776,13 +1789,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -1813,67 +1826,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
